--- a/billy_1080/billy_1080.xlsx
+++ b/billy_1080/billy_1080.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameyagupta/Desktop/repos/mc-quantization/billy_1080/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D24F1C4B-8E2B-2247-8347-C5B40EF43F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2B1F3FC3-8320-B54F-96AB-13127467D8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
-    <sheet name="billy_1080" sheetId="1" r:id="rId1"/>
+    <sheet name="billy data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="billy_480" localSheetId="0">'billy data'!$A$25:$I$33</definedName>
+    <definedName name="billy_720" localSheetId="0">'billy data'!$A$15:$I$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,10 +36,66 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="billy_480" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/ameyagupta/Desktop/repos/mc-quantization/billy_480/billy_480.csv" comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="billy_720" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/ameyagupta/Desktop/repos/mc-quantization/billy_720/billy_720.csv" comma="1">
+      <textFields count="9">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Palette Size (expressed as 2^n)</t>
+  </si>
+  <si>
+    <t>Time Taken 1</t>
+  </si>
+  <si>
+    <t>Time Taken 2</t>
+  </si>
+  <si>
+    <t>Time Taken 3</t>
+  </si>
+  <si>
+    <t>Time Taken 4</t>
+  </si>
+  <si>
+    <t>Time Taken 5</t>
+  </si>
+  <si>
+    <t>Time Taken 6</t>
+  </si>
+  <si>
+    <t>Time Taken 7</t>
   </si>
   <si>
     <t>Mean SSIM Index</t>
@@ -67,12 +127,21 @@
   <si>
     <t>Trial 7</t>
   </si>
+  <si>
+    <t>Palette Size (expressed as 2^x)</t>
+  </si>
+  <si>
+    <t>1080p Image</t>
+  </si>
+  <si>
+    <t>720p Image</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,8 +276,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,8 +463,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -504,6 +591,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -549,9 +716,45 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -610,6 +813,965 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34039566929133858"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'billy data'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average Time Taken</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'billy data'!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'billy data'!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6228773253304585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7486789907727871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8403922149113214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9112125124250086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0218989167894601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1030397755759056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.204983336584903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2640781402587846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D717-3240-8A95-0A65254FBAB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="989231056"/>
+        <c:axId val="989052304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="989231056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989052304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="989052304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="989231056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>334817</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>178378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0345CA08-919C-7AC0-DB43-2F777992E12E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="billy_480" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="billy_720" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,328 +2071,939 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1.6413040161132799</v>
-      </c>
-      <c r="C3">
-        <v>1.6164069175720199</v>
-      </c>
-      <c r="D3">
-        <v>1.62080001831054</v>
-      </c>
-      <c r="E3">
-        <v>1.6180231571197501</v>
-      </c>
-      <c r="F3">
-        <v>1.6240200996398899</v>
-      </c>
-      <c r="G3">
-        <v>1.6221849918365401</v>
-      </c>
-      <c r="H3">
-        <v>1.6174020767211901</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>AVERAGE(B3:H3)</f>
-        <v>1.6228773253304585</v>
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1.74753713607788</v>
-      </c>
-      <c r="C4">
-        <v>1.73621678352355</v>
-      </c>
-      <c r="D4">
-        <v>1.78476309776306</v>
-      </c>
-      <c r="E4">
-        <v>1.7396221160888601</v>
-      </c>
-      <c r="F4">
-        <v>1.7478380203246999</v>
-      </c>
-      <c r="G4">
-        <v>1.7396168708801201</v>
-      </c>
-      <c r="H4">
-        <v>1.7451589107513401</v>
-      </c>
-      <c r="I4">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.6413040161132799</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.6164069175720199</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.62080001831054</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.6180231571197501</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.6240200996398899</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.6221849918365401</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.6174020767211901</v>
+      </c>
+      <c r="I4" s="6">
         <v>0</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J10" si="0">AVERAGE(B4:H4)</f>
-        <v>1.7486789907727871</v>
+      <c r="J4" s="7">
+        <f>AVERAGE(B4:H4)</f>
+        <v>1.6228773253304585</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.74753713607788</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.73621678352355</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.78476309776306</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.7396221160888601</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1.7478380203246999</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.7396168708801201</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.7451589107513401</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" ref="J5:J11" si="0">AVERAGE(B5:H5)</f>
+        <v>1.7486789907727871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="6">
         <v>1.83316898345947</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="6">
         <v>1.8451497554778999</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="6">
         <v>1.84425401687622</v>
       </c>
-      <c r="E5">
+      <c r="E6" s="6">
         <v>1.83754682540893</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="6">
         <v>1.84284496307373</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="6">
         <v>1.84493803977966</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="6">
         <v>1.8348429203033401</v>
       </c>
-      <c r="I5">
+      <c r="I6" s="6">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="J6" s="7">
         <f t="shared" si="0"/>
         <v>1.8403922149113214</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="6">
         <v>1.91187191009521</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="6">
         <v>1.9107141494750901</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="6">
         <v>1.91248774528503</v>
       </c>
-      <c r="E6">
+      <c r="E7" s="6">
         <v>1.9122350215911801</v>
       </c>
-      <c r="F6">
+      <c r="F7" s="6">
         <v>1.9099647998809799</v>
       </c>
-      <c r="G6">
+      <c r="G7" s="6">
         <v>1.91314601898193</v>
       </c>
-      <c r="H6">
+      <c r="H7" s="6">
         <v>1.9080679416656401</v>
       </c>
-      <c r="I6">
+      <c r="I7" s="6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
         <v>1.9112125124250086</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="6">
         <v>2.0224430561065598</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="6">
         <v>2.0495967864990199</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="6">
         <v>2.0052118301391602</v>
       </c>
-      <c r="E7">
+      <c r="E8" s="6">
         <v>2.0033400058746298</v>
       </c>
-      <c r="F7">
+      <c r="F8" s="6">
         <v>1.99957299232482</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="6">
         <v>2.0603556632995601</v>
       </c>
-      <c r="H7">
+      <c r="H8" s="6">
         <v>2.0127720832824698</v>
       </c>
-      <c r="I7">
+      <c r="I8" s="6">
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J8" s="7">
         <f t="shared" si="0"/>
         <v>2.0218989167894601</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="6">
         <v>2.0879960060119598</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="6">
         <v>2.13690185546875</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="6">
         <v>2.0877618789672798</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="6">
         <v>2.0884249210357599</v>
       </c>
-      <c r="F8">
+      <c r="F9" s="6">
         <v>2.1018738746643</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="6">
         <v>2.1281538009643501</v>
       </c>
-      <c r="H8">
+      <c r="H9" s="6">
         <v>2.09016609191894</v>
       </c>
-      <c r="I8">
+      <c r="I9" s="6">
         <v>0</v>
       </c>
-      <c r="J8">
+      <c r="J9" s="7">
         <f t="shared" si="0"/>
         <v>2.1030397755759056</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="6">
         <v>2.1970748901367099</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="6">
         <v>2.1552257537841699</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="6">
         <v>2.17983698844909</v>
       </c>
-      <c r="E9">
+      <c r="E10" s="6">
         <v>2.2984619140625</v>
       </c>
-      <c r="F9">
+      <c r="F10" s="6">
         <v>2.2194960117339999</v>
       </c>
-      <c r="G9">
+      <c r="G10" s="6">
         <v>2.1955099105834899</v>
       </c>
-      <c r="H9">
+      <c r="H10" s="6">
         <v>2.1892778873443599</v>
       </c>
-      <c r="I9">
+      <c r="I10" s="6">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J10" s="7">
         <f t="shared" si="0"/>
         <v>2.204983336584903</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="12">
         <v>2.2865972518920898</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="12">
         <v>2.2694721221923801</v>
       </c>
-      <c r="D10">
+      <c r="D11" s="12">
         <v>2.31974101066589</v>
       </c>
-      <c r="E10">
+      <c r="E11" s="12">
         <v>2.27250623703002</v>
       </c>
-      <c r="F10">
+      <c r="F11" s="12">
         <v>2.2344901561736998</v>
       </c>
-      <c r="G10">
+      <c r="G11" s="12">
         <v>2.2269511222839302</v>
       </c>
-      <c r="H10">
+      <c r="H11" s="12">
         <v>2.2387890815734801</v>
       </c>
-      <c r="I10">
+      <c r="I11" s="12">
         <v>0</v>
       </c>
-      <c r="J10">
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>2.2640781402587846</v>
       </c>
     </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.737879037857055</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.74019098281860296</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.73708915710449197</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.73340272903442305</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.73405289649963301</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.73584699630737305</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.73194694519042902</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <f>AVERAGE(B16:H16)</f>
+        <v>0.73577267783028677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.77449798583984297</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.776885986328125</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.77582788467407204</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.77920508384704501</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.77210497856140103</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.78964686393737704</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.77700185775756803</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" ref="J17:J23" si="1">AVERAGE(B17:H17)</f>
+        <v>0.77788152013506162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.82428097724914495</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.82906126976013095</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.84698224067687899</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.82493877410888605</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.81753015518188399</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0.82799077033996504</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.81733202934265103</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.82687374523707735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.85915184020996005</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.86395692825317305</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.86376595497131303</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.87240290641784601</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.86165475845336903</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.85763096809387196</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.85841012001037598</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.86242478234427278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.907071113586425</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.91959500312805098</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.89595985412597601</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.90240883827209395</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.90191102027893</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.89921879768371504</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.89166903495788497</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.90254766600472514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.925637006759643</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.93353128433227495</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1.0274808406829801</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.93000197410583496</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.944261074066162</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.93626904487609797</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.93886685371398904</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.94800686836242598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.95524001121520996</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.95599889755249001</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.96115994453430098</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.957256078720092</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.95863509178161599</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.96900916099548295</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.95911598205566395</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95948788097926518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>8</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.99400901794433505</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1.00919413566589</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1.0007231235504099</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1.0060622692108101</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.99569773674011197</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1.02148389816284</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0.99091100692749001</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0025830268859839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.32258391380309998</v>
+      </c>
+      <c r="C26">
+        <v>0.32405710220336897</v>
+      </c>
+      <c r="D26">
+        <v>0.32935714721679599</v>
+      </c>
+      <c r="E26">
+        <v>0.32392287254333402</v>
+      </c>
+      <c r="F26">
+        <v>0.31629991531371998</v>
+      </c>
+      <c r="G26">
+        <v>0.32436823844909601</v>
+      </c>
+      <c r="H26">
+        <v>0.317339897155761</v>
+      </c>
+      <c r="I26">
+        <v>0.60613408410440295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0.34184098243713301</v>
+      </c>
+      <c r="C27">
+        <v>0.34162831306457497</v>
+      </c>
+      <c r="D27">
+        <v>0.338770151138305</v>
+      </c>
+      <c r="E27">
+        <v>0.34043693542480402</v>
+      </c>
+      <c r="F27">
+        <v>0.34028577804565402</v>
+      </c>
+      <c r="G27">
+        <v>0.33822894096374501</v>
+      </c>
+      <c r="H27">
+        <v>0.34102201461791898</v>
+      </c>
+      <c r="I27">
+        <v>0.75632629257444595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.35931396484375</v>
+      </c>
+      <c r="C28">
+        <v>0.37793898582458402</v>
+      </c>
+      <c r="D28">
+        <v>0.35714697837829501</v>
+      </c>
+      <c r="E28">
+        <v>0.35954093933105402</v>
+      </c>
+      <c r="F28">
+        <v>0.35675072669982899</v>
+      </c>
+      <c r="G28">
+        <v>0.35641074180603</v>
+      </c>
+      <c r="H28">
+        <v>0.35660314559936501</v>
+      </c>
+      <c r="I28">
+        <v>0.83822585609592704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>0.37218904495239202</v>
+      </c>
+      <c r="C29">
+        <v>0.374481201171875</v>
+      </c>
+      <c r="D29">
+        <v>0.37173390388488697</v>
+      </c>
+      <c r="E29">
+        <v>0.37099194526672302</v>
+      </c>
+      <c r="F29">
+        <v>0.374619960784912</v>
+      </c>
+      <c r="G29">
+        <v>0.37344813346862699</v>
+      </c>
+      <c r="H29">
+        <v>0.37411189079284601</v>
+      </c>
+      <c r="I29">
+        <v>0.89320829596836604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>0.39059209823608398</v>
+      </c>
+      <c r="C30">
+        <v>0.39057898521423301</v>
+      </c>
+      <c r="D30">
+        <v>0.38990592956542902</v>
+      </c>
+      <c r="E30">
+        <v>0.41781091690063399</v>
+      </c>
+      <c r="F30">
+        <v>0.39485120773315402</v>
+      </c>
+      <c r="G30">
+        <v>0.39192414283752403</v>
+      </c>
+      <c r="H30">
+        <v>0.38947129249572698</v>
+      </c>
+      <c r="I30">
+        <v>0.91526605124251204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>0.40332818031311002</v>
+      </c>
+      <c r="C31">
+        <v>0.40314292907714799</v>
+      </c>
+      <c r="D31">
+        <v>0.40308117866516102</v>
+      </c>
+      <c r="E31">
+        <v>0.404591083526611</v>
+      </c>
+      <c r="F31">
+        <v>0.40696287155151301</v>
+      </c>
+      <c r="G31">
+        <v>0.40988111495971602</v>
+      </c>
+      <c r="H31">
+        <v>0.40472579002380299</v>
+      </c>
+      <c r="I31">
+        <v>0.93194516877734002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>0.42120885848999001</v>
+      </c>
+      <c r="C32">
+        <v>0.42138290405273399</v>
+      </c>
+      <c r="D32">
+        <v>0.42085599899291898</v>
+      </c>
+      <c r="E32">
+        <v>0.41879987716674799</v>
+      </c>
+      <c r="F32">
+        <v>0.41867685317993097</v>
+      </c>
+      <c r="G32">
+        <v>0.42669677734375</v>
+      </c>
+      <c r="H32">
+        <v>0.42376494407653797</v>
+      </c>
+      <c r="I32">
+        <v>0.96276695441187299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>0.43672800064086897</v>
+      </c>
+      <c r="C33">
+        <v>0.438790082931518</v>
+      </c>
+      <c r="D33">
+        <v>0.438549995422363</v>
+      </c>
+      <c r="E33">
+        <v>0.43620228767394997</v>
+      </c>
+      <c r="F33">
+        <v>0.439990043640136</v>
+      </c>
+      <c r="G33">
+        <v>0.43789315223693798</v>
+      </c>
+      <c r="H33">
+        <v>0.43592119216918901</v>
+      </c>
+      <c r="I33">
+        <v>0.97503825134181799</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>